--- a/Table List.xlsx
+++ b/Table List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z8604tip\Documents\Gerald\SYSTEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BDD3352-6252-4719-94E6-D8776C78714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0C3F23-2190-4158-BD27-6E397CE03108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6699D4E6-16E1-42E8-9613-8A0AB1952374}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{39EEA350-0DB1-452C-BA5A-9328C9B2A52D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
-    <t>TABLES</t>
+    <t>ROOMS</t>
+  </si>
+  <si>
+    <t>occupied</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>ROOM NO.</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
 </sst>
 </file>
@@ -74,8 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,19 +407,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDAB041-F1F9-4A72-A114-30779A2C4109}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28774B16-A0D7-462F-B647-4106F62345D6}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>